--- a/results/STO.xlsx
+++ b/results/STO.xlsx
@@ -426,7 +426,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:P134"/>
+  <dimension ref="A1:P178"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -6996,6 +6996,2134 @@
       </c>
       <c r="P134" t="n">
         <v>-22.62824210744975</v>
+      </c>
+    </row>
+    <row r="135">
+      <c r="A135" t="inlineStr">
+        <is>
+          <t>twelve_bar_breakout</t>
+        </is>
+      </c>
+      <c r="B135" t="n">
+        <v>18</v>
+      </c>
+      <c r="C135" t="inlineStr"/>
+      <c r="D135" t="n">
+        <v>0.7621234059333801</v>
+      </c>
+      <c r="E135" t="n">
+        <v>-14.00447932237521</v>
+      </c>
+      <c r="F135" t="b">
+        <v>0</v>
+      </c>
+      <c r="G135" t="n">
+        <v>2.750459272624859e-06</v>
+      </c>
+      <c r="H135" t="n">
+        <v>4</v>
+      </c>
+      <c r="I135" t="n">
+        <v>-23.93064331543998</v>
+      </c>
+      <c r="J135" t="n">
+        <v>26</v>
+      </c>
+      <c r="K135" t="b">
+        <v>0</v>
+      </c>
+      <c r="L135" t="inlineStr"/>
+      <c r="M135" t="inlineStr"/>
+      <c r="N135" t="n">
+        <v>14.00448207283448</v>
+      </c>
+      <c r="O135" t="inlineStr"/>
+      <c r="P135" t="inlineStr"/>
+    </row>
+    <row r="136">
+      <c r="A136" t="inlineStr">
+        <is>
+          <t>twelve_bar_breakout</t>
+        </is>
+      </c>
+      <c r="B136" t="n">
+        <v>57</v>
+      </c>
+      <c r="C136" t="inlineStr"/>
+      <c r="D136" t="n">
+        <v>0.6179292798042297</v>
+      </c>
+      <c r="E136" t="n">
+        <v>30.21988817930666</v>
+      </c>
+      <c r="F136" t="b">
+        <v>1</v>
+      </c>
+      <c r="G136" t="n">
+        <v>30.21988817930664</v>
+      </c>
+      <c r="H136" t="n">
+        <v>52</v>
+      </c>
+      <c r="I136" t="n">
+        <v>-9.457298977266442e-05</v>
+      </c>
+      <c r="J136" t="n">
+        <v>4</v>
+      </c>
+      <c r="K136" t="b">
+        <v>0</v>
+      </c>
+      <c r="L136" t="inlineStr"/>
+      <c r="M136" t="inlineStr"/>
+      <c r="N136" t="n">
+        <v>-1.4210854715202e-14</v>
+      </c>
+      <c r="O136" t="inlineStr"/>
+      <c r="P136" t="inlineStr"/>
+    </row>
+    <row r="137">
+      <c r="A137" t="inlineStr">
+        <is>
+          <t>twelve_bar_breakout</t>
+        </is>
+      </c>
+      <c r="B137" t="n">
+        <v>183</v>
+      </c>
+      <c r="C137" t="inlineStr"/>
+      <c r="D137" t="n">
+        <v>0.709402322769165</v>
+      </c>
+      <c r="E137" t="n">
+        <v>-20.69924572728351</v>
+      </c>
+      <c r="F137" t="b">
+        <v>0</v>
+      </c>
+      <c r="G137" t="n">
+        <v>1.880946536811894e-05</v>
+      </c>
+      <c r="H137" t="n">
+        <v>4</v>
+      </c>
+      <c r="I137" t="n">
+        <v>-23.9364545307219</v>
+      </c>
+      <c r="J137" t="n">
+        <v>39</v>
+      </c>
+      <c r="K137" t="b">
+        <v>1</v>
+      </c>
+      <c r="L137" t="n">
+        <v>22</v>
+      </c>
+      <c r="M137" t="n">
+        <v>-13.81395715402953</v>
+      </c>
+      <c r="N137" t="n">
+        <v>20.69926453674888</v>
+      </c>
+      <c r="O137" t="n">
+        <v>6.885288573253987</v>
+      </c>
+      <c r="P137" t="n">
+        <v>-13.8139759634949</v>
+      </c>
+    </row>
+    <row r="138">
+      <c r="A138" t="inlineStr">
+        <is>
+          <t>twelve_bar_breakout</t>
+        </is>
+      </c>
+      <c r="B138" t="n">
+        <v>261</v>
+      </c>
+      <c r="C138" t="inlineStr"/>
+      <c r="D138" t="n">
+        <v>0.6077049970626831</v>
+      </c>
+      <c r="E138" t="n">
+        <v>48.81580266307088</v>
+      </c>
+      <c r="F138" t="b">
+        <v>1</v>
+      </c>
+      <c r="G138" t="n">
+        <v>61.15287205321354</v>
+      </c>
+      <c r="H138" t="n">
+        <v>40</v>
+      </c>
+      <c r="I138" t="n">
+        <v>-5.454556338658406</v>
+      </c>
+      <c r="J138" t="n">
+        <v>0</v>
+      </c>
+      <c r="K138" t="b">
+        <v>0</v>
+      </c>
+      <c r="L138" t="inlineStr"/>
+      <c r="M138" t="inlineStr"/>
+      <c r="N138" t="n">
+        <v>12.33706939014265</v>
+      </c>
+      <c r="O138" t="inlineStr"/>
+      <c r="P138" t="inlineStr"/>
+    </row>
+    <row r="139">
+      <c r="A139" t="inlineStr">
+        <is>
+          <t>twelve_bar_breakout</t>
+        </is>
+      </c>
+      <c r="B139" t="n">
+        <v>296</v>
+      </c>
+      <c r="C139" t="inlineStr"/>
+      <c r="D139" t="n">
+        <v>0.9582477211952209</v>
+      </c>
+      <c r="E139" t="n">
+        <v>-3.435381662526003</v>
+      </c>
+      <c r="F139" t="b">
+        <v>0</v>
+      </c>
+      <c r="G139" t="n">
+        <v>2.200509817637644</v>
+      </c>
+      <c r="H139" t="n">
+        <v>5</v>
+      </c>
+      <c r="I139" t="n">
+        <v>-5.952362567701853</v>
+      </c>
+      <c r="J139" t="n">
+        <v>0</v>
+      </c>
+      <c r="K139" t="b">
+        <v>1</v>
+      </c>
+      <c r="L139" t="n">
+        <v>39</v>
+      </c>
+      <c r="M139" t="n">
+        <v>-5.911432605475903</v>
+      </c>
+      <c r="N139" t="n">
+        <v>5.635891480163647</v>
+      </c>
+      <c r="O139" t="n">
+        <v>-2.4760509429499</v>
+      </c>
+      <c r="P139" t="n">
+        <v>-8.111942423113547</v>
+      </c>
+    </row>
+    <row r="140">
+      <c r="A140" t="inlineStr">
+        <is>
+          <t>twelve_bar_breakout</t>
+        </is>
+      </c>
+      <c r="B140" t="n">
+        <v>348</v>
+      </c>
+      <c r="C140" t="inlineStr"/>
+      <c r="D140" t="n">
+        <v>0.925328254699707</v>
+      </c>
+      <c r="E140" t="n">
+        <v>0.551382491803875</v>
+      </c>
+      <c r="F140" t="b">
+        <v>1</v>
+      </c>
+      <c r="G140" t="n">
+        <v>4.485456030338693</v>
+      </c>
+      <c r="H140" t="n">
+        <v>9</v>
+      </c>
+      <c r="I140" t="n">
+        <v>-13.72035279695283</v>
+      </c>
+      <c r="J140" t="n">
+        <v>22</v>
+      </c>
+      <c r="K140" t="b">
+        <v>0</v>
+      </c>
+      <c r="L140" t="inlineStr"/>
+      <c r="M140" t="inlineStr"/>
+      <c r="N140" t="n">
+        <v>3.934073538534817</v>
+      </c>
+      <c r="O140" t="inlineStr"/>
+      <c r="P140" t="inlineStr"/>
+    </row>
+    <row r="141">
+      <c r="A141" t="inlineStr">
+        <is>
+          <t>twelve_bar_breakout</t>
+        </is>
+      </c>
+      <c r="B141" t="n">
+        <v>382</v>
+      </c>
+      <c r="C141" t="inlineStr"/>
+      <c r="D141" t="n">
+        <v>0.9505477547645568</v>
+      </c>
+      <c r="E141" t="n">
+        <v>27.21870356848031</v>
+      </c>
+      <c r="F141" t="b">
+        <v>1</v>
+      </c>
+      <c r="G141" t="n">
+        <v>27.21870356848031</v>
+      </c>
+      <c r="H141" t="n">
+        <v>49</v>
+      </c>
+      <c r="I141" t="n">
+        <v>-10.58195477736541</v>
+      </c>
+      <c r="J141" t="n">
+        <v>5</v>
+      </c>
+      <c r="K141" t="b">
+        <v>0</v>
+      </c>
+      <c r="L141" t="inlineStr"/>
+      <c r="M141" t="inlineStr"/>
+      <c r="N141" t="n">
+        <v>0</v>
+      </c>
+      <c r="O141" t="inlineStr"/>
+      <c r="P141" t="inlineStr"/>
+    </row>
+    <row r="142">
+      <c r="A142" t="inlineStr">
+        <is>
+          <t>twelve_bar_breakout</t>
+        </is>
+      </c>
+      <c r="B142" t="n">
+        <v>487</v>
+      </c>
+      <c r="C142" t="inlineStr"/>
+      <c r="D142" t="n">
+        <v>1.472400903701782</v>
+      </c>
+      <c r="E142" t="n">
+        <v>1.744523735539471</v>
+      </c>
+      <c r="F142" t="b">
+        <v>1</v>
+      </c>
+      <c r="G142" t="n">
+        <v>31.97030335238695</v>
+      </c>
+      <c r="H142" t="n">
+        <v>22</v>
+      </c>
+      <c r="I142" t="n">
+        <v>-6.877333860695728</v>
+      </c>
+      <c r="J142" t="n">
+        <v>0</v>
+      </c>
+      <c r="K142" t="b">
+        <v>0</v>
+      </c>
+      <c r="L142" t="inlineStr"/>
+      <c r="M142" t="inlineStr"/>
+      <c r="N142" t="n">
+        <v>30.22577961684748</v>
+      </c>
+      <c r="O142" t="inlineStr"/>
+      <c r="P142" t="inlineStr"/>
+    </row>
+    <row r="143">
+      <c r="A143" t="inlineStr">
+        <is>
+          <t>twelve_bar_breakout</t>
+        </is>
+      </c>
+      <c r="B143" t="n">
+        <v>572</v>
+      </c>
+      <c r="C143" t="inlineStr"/>
+      <c r="D143" t="n">
+        <v>1.367729544639587</v>
+      </c>
+      <c r="E143" t="n">
+        <v>-2.038759918966976</v>
+      </c>
+      <c r="F143" t="b">
+        <v>0</v>
+      </c>
+      <c r="G143" t="n">
+        <v>23.18241003271491</v>
+      </c>
+      <c r="H143" t="n">
+        <v>26</v>
+      </c>
+      <c r="I143" t="n">
+        <v>-11.57261032759958</v>
+      </c>
+      <c r="J143" t="n">
+        <v>40</v>
+      </c>
+      <c r="K143" t="b">
+        <v>1</v>
+      </c>
+      <c r="L143" t="n">
+        <v>5</v>
+      </c>
+      <c r="M143" t="n">
+        <v>-6.852289920282215</v>
+      </c>
+      <c r="N143" t="n">
+        <v>25.22116995168188</v>
+      </c>
+      <c r="O143" t="n">
+        <v>-4.813530001315239</v>
+      </c>
+      <c r="P143" t="n">
+        <v>-30.03469995299712</v>
+      </c>
+    </row>
+    <row r="144">
+      <c r="A144" t="inlineStr">
+        <is>
+          <t>twelve_bar_breakout</t>
+        </is>
+      </c>
+      <c r="B144" t="n">
+        <v>583</v>
+      </c>
+      <c r="C144" t="inlineStr"/>
+      <c r="D144" t="n">
+        <v>1.347227931022644</v>
+      </c>
+      <c r="E144" t="n">
+        <v>-11.43491756351245</v>
+      </c>
+      <c r="F144" t="b">
+        <v>0</v>
+      </c>
+      <c r="G144" t="n">
+        <v>25.0569541367535</v>
+      </c>
+      <c r="H144" t="n">
+        <v>15</v>
+      </c>
+      <c r="I144" t="n">
+        <v>-15.93666614876368</v>
+      </c>
+      <c r="J144" t="n">
+        <v>48</v>
+      </c>
+      <c r="K144" t="b">
+        <v>1</v>
+      </c>
+      <c r="L144" t="n">
+        <v>22</v>
+      </c>
+      <c r="M144" t="n">
+        <v>1.385487260081015</v>
+      </c>
+      <c r="N144" t="n">
+        <v>36.49187170026595</v>
+      </c>
+      <c r="O144" t="n">
+        <v>12.82040482359347</v>
+      </c>
+      <c r="P144" t="n">
+        <v>-23.67146687667248</v>
+      </c>
+    </row>
+    <row r="145">
+      <c r="A145" t="inlineStr">
+        <is>
+          <t>twelve_bar_breakout</t>
+        </is>
+      </c>
+      <c r="B145" t="n">
+        <v>597</v>
+      </c>
+      <c r="C145" t="inlineStr"/>
+      <c r="D145" t="n">
+        <v>1.669759631156921</v>
+      </c>
+      <c r="E145" t="n">
+        <v>-3.517387321544955</v>
+      </c>
+      <c r="F145" t="b">
+        <v>0</v>
+      </c>
+      <c r="G145" t="n">
+        <v>0.9008832396539083</v>
+      </c>
+      <c r="H145" t="n">
+        <v>1</v>
+      </c>
+      <c r="I145" t="n">
+        <v>-32.17438652484489</v>
+      </c>
+      <c r="J145" t="n">
+        <v>34</v>
+      </c>
+      <c r="K145" t="b">
+        <v>1</v>
+      </c>
+      <c r="L145" t="n">
+        <v>8</v>
+      </c>
+      <c r="M145" t="n">
+        <v>-18.19818991402774</v>
+      </c>
+      <c r="N145" t="n">
+        <v>4.418270561198863</v>
+      </c>
+      <c r="O145" t="n">
+        <v>-14.68080259248278</v>
+      </c>
+      <c r="P145" t="n">
+        <v>-19.09907315368164</v>
+      </c>
+    </row>
+    <row r="146">
+      <c r="A146" t="inlineStr">
+        <is>
+          <t>twelve_bar_breakout</t>
+        </is>
+      </c>
+      <c r="B146" t="n">
+        <v>645</v>
+      </c>
+      <c r="C146" t="inlineStr"/>
+      <c r="D146" t="n">
+        <v>1.604609727859497</v>
+      </c>
+      <c r="E146" t="n">
+        <v>43.56513701407431</v>
+      </c>
+      <c r="F146" t="b">
+        <v>1</v>
+      </c>
+      <c r="G146" t="n">
+        <v>49.77969708594172</v>
+      </c>
+      <c r="H146" t="n">
+        <v>46</v>
+      </c>
+      <c r="I146" t="n">
+        <v>-7.999987924944015</v>
+      </c>
+      <c r="J146" t="n">
+        <v>0</v>
+      </c>
+      <c r="K146" t="b">
+        <v>1</v>
+      </c>
+      <c r="L146" t="n">
+        <v>50</v>
+      </c>
+      <c r="M146" t="n">
+        <v>35.24410268251221</v>
+      </c>
+      <c r="N146" t="n">
+        <v>6.21456007186741</v>
+      </c>
+      <c r="O146" t="n">
+        <v>-8.321034331562103</v>
+      </c>
+      <c r="P146" t="n">
+        <v>-14.53559440342951</v>
+      </c>
+    </row>
+    <row r="147">
+      <c r="A147" t="inlineStr">
+        <is>
+          <t>twelve_bar_breakout</t>
+        </is>
+      </c>
+      <c r="B147" t="n">
+        <v>687</v>
+      </c>
+      <c r="C147" t="inlineStr"/>
+      <c r="D147" t="n">
+        <v>2.207298755645752</v>
+      </c>
+      <c r="E147" t="n">
+        <v>-6.386560412837129</v>
+      </c>
+      <c r="F147" t="b">
+        <v>0</v>
+      </c>
+      <c r="G147" t="n">
+        <v>8.883293829266556</v>
+      </c>
+      <c r="H147" t="n">
+        <v>4</v>
+      </c>
+      <c r="I147" t="n">
+        <v>-15.78768919838867</v>
+      </c>
+      <c r="J147" t="n">
+        <v>25</v>
+      </c>
+      <c r="K147" t="b">
+        <v>1</v>
+      </c>
+      <c r="L147" t="n">
+        <v>8</v>
+      </c>
+      <c r="M147" t="n">
+        <v>-1.683448040317638</v>
+      </c>
+      <c r="N147" t="n">
+        <v>15.26985424210369</v>
+      </c>
+      <c r="O147" t="n">
+        <v>4.703112372519492</v>
+      </c>
+      <c r="P147" t="n">
+        <v>-10.56674186958419</v>
+      </c>
+    </row>
+    <row r="148">
+      <c r="A148" t="inlineStr">
+        <is>
+          <t>twelve_bar_breakout</t>
+        </is>
+      </c>
+      <c r="B148" t="n">
+        <v>750</v>
+      </c>
+      <c r="C148" t="inlineStr"/>
+      <c r="D148" t="n">
+        <v>2.218995094299316</v>
+      </c>
+      <c r="E148" t="n">
+        <v>-6.370754066233022</v>
+      </c>
+      <c r="F148" t="b">
+        <v>0</v>
+      </c>
+      <c r="G148" t="n">
+        <v>8.921117496726213</v>
+      </c>
+      <c r="H148" t="n">
+        <v>33</v>
+      </c>
+      <c r="I148" t="n">
+        <v>-12.92643844084596</v>
+      </c>
+      <c r="J148" t="n">
+        <v>48</v>
+      </c>
+      <c r="K148" t="b">
+        <v>1</v>
+      </c>
+      <c r="L148" t="n">
+        <v>6</v>
+      </c>
+      <c r="M148" t="n">
+        <v>-3.839998108978699</v>
+      </c>
+      <c r="N148" t="n">
+        <v>15.29187156295923</v>
+      </c>
+      <c r="O148" t="n">
+        <v>2.530755957254323</v>
+      </c>
+      <c r="P148" t="n">
+        <v>-12.76111560570491</v>
+      </c>
+    </row>
+    <row r="149">
+      <c r="A149" t="inlineStr">
+        <is>
+          <t>twelve_bar_breakout</t>
+        </is>
+      </c>
+      <c r="B149" t="n">
+        <v>768</v>
+      </c>
+      <c r="C149" t="inlineStr"/>
+      <c r="D149" t="n">
+        <v>2.235150814056396</v>
+      </c>
+      <c r="E149" t="n">
+        <v>5.380653579098746</v>
+      </c>
+      <c r="F149" t="b">
+        <v>1</v>
+      </c>
+      <c r="G149" t="n">
+        <v>8.133833238841367</v>
+      </c>
+      <c r="H149" t="n">
+        <v>15</v>
+      </c>
+      <c r="I149" t="n">
+        <v>-13.55580807888286</v>
+      </c>
+      <c r="J149" t="n">
+        <v>30</v>
+      </c>
+      <c r="K149" t="b">
+        <v>0</v>
+      </c>
+      <c r="L149" t="inlineStr"/>
+      <c r="M149" t="inlineStr"/>
+      <c r="N149" t="n">
+        <v>2.753179659742621</v>
+      </c>
+      <c r="O149" t="inlineStr"/>
+      <c r="P149" t="inlineStr"/>
+    </row>
+    <row r="150">
+      <c r="A150" t="inlineStr">
+        <is>
+          <t>twelve_bar_breakout</t>
+        </is>
+      </c>
+      <c r="B150" t="n">
+        <v>820</v>
+      </c>
+      <c r="C150" t="inlineStr"/>
+      <c r="D150" t="n">
+        <v>2.355416536331177</v>
+      </c>
+      <c r="E150" t="n">
+        <v>31.27065359574376</v>
+      </c>
+      <c r="F150" t="b">
+        <v>1</v>
+      </c>
+      <c r="G150" t="n">
+        <v>33.65735438814455</v>
+      </c>
+      <c r="H150" t="n">
+        <v>51</v>
+      </c>
+      <c r="I150" t="n">
+        <v>-5.040663810856</v>
+      </c>
+      <c r="J150" t="n">
+        <v>20</v>
+      </c>
+      <c r="K150" t="b">
+        <v>1</v>
+      </c>
+      <c r="L150" t="n">
+        <v>45</v>
+      </c>
+      <c r="M150" t="n">
+        <v>10.65766281994948</v>
+      </c>
+      <c r="N150" t="n">
+        <v>2.386700792400784</v>
+      </c>
+      <c r="O150" t="n">
+        <v>-20.61299077579428</v>
+      </c>
+      <c r="P150" t="n">
+        <v>-22.99969156819506</v>
+      </c>
+    </row>
+    <row r="151">
+      <c r="A151" t="inlineStr">
+        <is>
+          <t>twelve_bar_breakout</t>
+        </is>
+      </c>
+      <c r="B151" t="n">
+        <v>852</v>
+      </c>
+      <c r="C151" t="inlineStr"/>
+      <c r="D151" t="n">
+        <v>2.665329933166504</v>
+      </c>
+      <c r="E151" t="n">
+        <v>52.9679215085439</v>
+      </c>
+      <c r="F151" t="b">
+        <v>1</v>
+      </c>
+      <c r="G151" t="n">
+        <v>54.50527882076235</v>
+      </c>
+      <c r="H151" t="n">
+        <v>52</v>
+      </c>
+      <c r="I151" t="n">
+        <v>-4.270992182567563</v>
+      </c>
+      <c r="J151" t="n">
+        <v>13</v>
+      </c>
+      <c r="K151" t="b">
+        <v>1</v>
+      </c>
+      <c r="L151" t="n">
+        <v>13</v>
+      </c>
+      <c r="M151" t="n">
+        <v>-2.209146554620526</v>
+      </c>
+      <c r="N151" t="n">
+        <v>1.537357312218447</v>
+      </c>
+      <c r="O151" t="n">
+        <v>-55.17706806316443</v>
+      </c>
+      <c r="P151" t="n">
+        <v>-56.71442537538287</v>
+      </c>
+    </row>
+    <row r="152">
+      <c r="A152" t="inlineStr">
+        <is>
+          <t>twelve_bar_breakout</t>
+        </is>
+      </c>
+      <c r="B152" t="n">
+        <v>879</v>
+      </c>
+      <c r="C152" t="inlineStr"/>
+      <c r="D152" t="n">
+        <v>3.381088495254517</v>
+      </c>
+      <c r="E152" t="n">
+        <v>44.04460292216948</v>
+      </c>
+      <c r="F152" t="b">
+        <v>1</v>
+      </c>
+      <c r="G152" t="n">
+        <v>58.69528055213392</v>
+      </c>
+      <c r="H152" t="n">
+        <v>44</v>
+      </c>
+      <c r="I152" t="n">
+        <v>-4.988134398409202</v>
+      </c>
+      <c r="J152" t="n">
+        <v>1</v>
+      </c>
+      <c r="K152" t="b">
+        <v>0</v>
+      </c>
+      <c r="L152" t="inlineStr"/>
+      <c r="M152" t="inlineStr"/>
+      <c r="N152" t="n">
+        <v>14.65067762996444</v>
+      </c>
+      <c r="O152" t="inlineStr"/>
+      <c r="P152" t="inlineStr"/>
+    </row>
+    <row r="153">
+      <c r="A153" t="inlineStr">
+        <is>
+          <t>twelve_bar_breakout</t>
+        </is>
+      </c>
+      <c r="B153" t="n">
+        <v>1005</v>
+      </c>
+      <c r="C153" t="inlineStr"/>
+      <c r="D153" t="n">
+        <v>5.533034324645996</v>
+      </c>
+      <c r="E153" t="n">
+        <v>45.38439489627973</v>
+      </c>
+      <c r="F153" t="b">
+        <v>1</v>
+      </c>
+      <c r="G153" t="n">
+        <v>46.12322229252581</v>
+      </c>
+      <c r="H153" t="n">
+        <v>52</v>
+      </c>
+      <c r="I153" t="n">
+        <v>-16.13671192650001</v>
+      </c>
+      <c r="J153" t="n">
+        <v>15</v>
+      </c>
+      <c r="K153" t="b">
+        <v>1</v>
+      </c>
+      <c r="L153" t="n">
+        <v>33</v>
+      </c>
+      <c r="M153" t="n">
+        <v>4.325169727293583</v>
+      </c>
+      <c r="N153" t="n">
+        <v>0.7388273962460801</v>
+      </c>
+      <c r="O153" t="n">
+        <v>-41.05922516898615</v>
+      </c>
+      <c r="P153" t="n">
+        <v>-41.79805256523223</v>
+      </c>
+    </row>
+    <row r="154">
+      <c r="A154" t="inlineStr">
+        <is>
+          <t>twelve_bar_breakout</t>
+        </is>
+      </c>
+      <c r="B154" t="n">
+        <v>1055</v>
+      </c>
+      <c r="C154" t="inlineStr"/>
+      <c r="D154" t="n">
+        <v>7.162990093231201</v>
+      </c>
+      <c r="E154" t="n">
+        <v>15.91296934291642</v>
+      </c>
+      <c r="F154" t="b">
+        <v>1</v>
+      </c>
+      <c r="G154" t="n">
+        <v>46.63400901806772</v>
+      </c>
+      <c r="H154" t="n">
+        <v>8</v>
+      </c>
+      <c r="I154" t="n">
+        <v>-35.19641533922459</v>
+      </c>
+      <c r="J154" t="n">
+        <v>26</v>
+      </c>
+      <c r="K154" t="b">
+        <v>1</v>
+      </c>
+      <c r="L154" t="n">
+        <v>25</v>
+      </c>
+      <c r="M154" t="n">
+        <v>-20.82413258687545</v>
+      </c>
+      <c r="N154" t="n">
+        <v>30.72103967515129</v>
+      </c>
+      <c r="O154" t="n">
+        <v>-36.73710192979188</v>
+      </c>
+      <c r="P154" t="n">
+        <v>-67.45814160494317</v>
+      </c>
+    </row>
+    <row r="155">
+      <c r="A155" t="inlineStr">
+        <is>
+          <t>twelve_bar_breakout</t>
+        </is>
+      </c>
+      <c r="B155" t="n">
+        <v>1102</v>
+      </c>
+      <c r="C155" t="inlineStr"/>
+      <c r="D155" t="n">
+        <v>7.974758625030518</v>
+      </c>
+      <c r="E155" t="n">
+        <v>-0.7786104526705812</v>
+      </c>
+      <c r="F155" t="b">
+        <v>0</v>
+      </c>
+      <c r="G155" t="n">
+        <v>13.67090293664137</v>
+      </c>
+      <c r="H155" t="n">
+        <v>2</v>
+      </c>
+      <c r="I155" t="n">
+        <v>-11.91118710627956</v>
+      </c>
+      <c r="J155" t="n">
+        <v>17</v>
+      </c>
+      <c r="K155" t="b">
+        <v>1</v>
+      </c>
+      <c r="L155" t="n">
+        <v>9</v>
+      </c>
+      <c r="M155" t="n">
+        <v>-3.136601208745547</v>
+      </c>
+      <c r="N155" t="n">
+        <v>14.44951338931195</v>
+      </c>
+      <c r="O155" t="n">
+        <v>-2.357990756074966</v>
+      </c>
+      <c r="P155" t="n">
+        <v>-16.80750414538692</v>
+      </c>
+    </row>
+    <row r="156">
+      <c r="A156" t="inlineStr">
+        <is>
+          <t>twelve_bar_breakout</t>
+        </is>
+      </c>
+      <c r="B156" t="n">
+        <v>1198</v>
+      </c>
+      <c r="C156" t="inlineStr"/>
+      <c r="D156" t="n">
+        <v>7.871414184570312</v>
+      </c>
+      <c r="E156" t="n">
+        <v>-4.473849302428357</v>
+      </c>
+      <c r="F156" t="b">
+        <v>0</v>
+      </c>
+      <c r="G156" t="n">
+        <v>24.02975933196067</v>
+      </c>
+      <c r="H156" t="n">
+        <v>13</v>
+      </c>
+      <c r="I156" t="n">
+        <v>-25.80232072890614</v>
+      </c>
+      <c r="J156" t="n">
+        <v>30</v>
+      </c>
+      <c r="K156" t="b">
+        <v>1</v>
+      </c>
+      <c r="L156" t="n">
+        <v>21</v>
+      </c>
+      <c r="M156" t="n">
+        <v>2.37960177257053</v>
+      </c>
+      <c r="N156" t="n">
+        <v>28.50360863438902</v>
+      </c>
+      <c r="O156" t="n">
+        <v>6.853451074998887</v>
+      </c>
+      <c r="P156" t="n">
+        <v>-21.65015755939013</v>
+      </c>
+    </row>
+    <row r="157">
+      <c r="A157" t="inlineStr">
+        <is>
+          <t>twelve_bar_breakout</t>
+        </is>
+      </c>
+      <c r="B157" t="n">
+        <v>1203</v>
+      </c>
+      <c r="C157" t="inlineStr"/>
+      <c r="D157" t="n">
+        <v>8.157229423522949</v>
+      </c>
+      <c r="E157" t="n">
+        <v>-2.727786075250118</v>
+      </c>
+      <c r="F157" t="b">
+        <v>0</v>
+      </c>
+      <c r="G157" t="n">
+        <v>19.68397065051489</v>
+      </c>
+      <c r="H157" t="n">
+        <v>8</v>
+      </c>
+      <c r="I157" t="n">
+        <v>-28.40207933928001</v>
+      </c>
+      <c r="J157" t="n">
+        <v>25</v>
+      </c>
+      <c r="K157" t="b">
+        <v>1</v>
+      </c>
+      <c r="L157" t="n">
+        <v>16</v>
+      </c>
+      <c r="M157" t="n">
+        <v>-1.207602757943409</v>
+      </c>
+      <c r="N157" t="n">
+        <v>22.41175672576501</v>
+      </c>
+      <c r="O157" t="n">
+        <v>1.520183317306709</v>
+      </c>
+      <c r="P157" t="n">
+        <v>-20.8915734084583</v>
+      </c>
+    </row>
+    <row r="158">
+      <c r="A158" t="inlineStr">
+        <is>
+          <t>twelve_bar_breakout</t>
+        </is>
+      </c>
+      <c r="B158" t="n">
+        <v>1241</v>
+      </c>
+      <c r="C158" t="inlineStr"/>
+      <c r="D158" t="n">
+        <v>7.934717655181885</v>
+      </c>
+      <c r="E158" t="n">
+        <v>-14.94710825381908</v>
+      </c>
+      <c r="F158" t="b">
+        <v>0</v>
+      </c>
+      <c r="G158" t="n">
+        <v>9.037028525160821</v>
+      </c>
+      <c r="H158" t="n">
+        <v>18</v>
+      </c>
+      <c r="I158" t="n">
+        <v>-25.17213500214878</v>
+      </c>
+      <c r="J158" t="n">
+        <v>36</v>
+      </c>
+      <c r="K158" t="b">
+        <v>1</v>
+      </c>
+      <c r="L158" t="n">
+        <v>33</v>
+      </c>
+      <c r="M158" t="n">
+        <v>-20.62581890756957</v>
+      </c>
+      <c r="N158" t="n">
+        <v>23.98413677897991</v>
+      </c>
+      <c r="O158" t="n">
+        <v>-5.678710653750482</v>
+      </c>
+      <c r="P158" t="n">
+        <v>-29.66284743273039</v>
+      </c>
+    </row>
+    <row r="159">
+      <c r="A159" t="inlineStr">
+        <is>
+          <t>twelve_bar_breakout</t>
+        </is>
+      </c>
+      <c r="B159" t="n">
+        <v>1291</v>
+      </c>
+      <c r="C159" t="inlineStr"/>
+      <c r="D159" t="n">
+        <v>6.898412704467773</v>
+      </c>
+      <c r="E159" t="n">
+        <v>30.90653085431551</v>
+      </c>
+      <c r="F159" t="b">
+        <v>1</v>
+      </c>
+      <c r="G159" t="n">
+        <v>40.13031372751721</v>
+      </c>
+      <c r="H159" t="n">
+        <v>48</v>
+      </c>
+      <c r="I159" t="n">
+        <v>-10.02603699914468</v>
+      </c>
+      <c r="J159" t="n">
+        <v>3</v>
+      </c>
+      <c r="K159" t="b">
+        <v>1</v>
+      </c>
+      <c r="L159" t="n">
+        <v>25</v>
+      </c>
+      <c r="M159" t="n">
+        <v>2.272472146993645</v>
+      </c>
+      <c r="N159" t="n">
+        <v>9.223782873201699</v>
+      </c>
+      <c r="O159" t="n">
+        <v>-28.63405870732187</v>
+      </c>
+      <c r="P159" t="n">
+        <v>-37.85784158052357</v>
+      </c>
+    </row>
+    <row r="160">
+      <c r="A160" t="inlineStr">
+        <is>
+          <t>twelve_bar_breakout</t>
+        </is>
+      </c>
+      <c r="B160" t="n">
+        <v>1307</v>
+      </c>
+      <c r="C160" t="inlineStr"/>
+      <c r="D160" t="n">
+        <v>7.461305141448975</v>
+      </c>
+      <c r="E160" t="n">
+        <v>15.29081563299829</v>
+      </c>
+      <c r="F160" t="b">
+        <v>1</v>
+      </c>
+      <c r="G160" t="n">
+        <v>29.5586654309158</v>
+      </c>
+      <c r="H160" t="n">
+        <v>32</v>
+      </c>
+      <c r="I160" t="n">
+        <v>-7.878058483433498</v>
+      </c>
+      <c r="J160" t="n">
+        <v>9</v>
+      </c>
+      <c r="K160" t="b">
+        <v>1</v>
+      </c>
+      <c r="L160" t="n">
+        <v>9</v>
+      </c>
+      <c r="M160" t="n">
+        <v>-5.443121839788883</v>
+      </c>
+      <c r="N160" t="n">
+        <v>14.26784979791752</v>
+      </c>
+      <c r="O160" t="n">
+        <v>-20.73393747278717</v>
+      </c>
+      <c r="P160" t="n">
+        <v>-35.00178727070468</v>
+      </c>
+    </row>
+    <row r="161">
+      <c r="A161" t="inlineStr">
+        <is>
+          <t>twelve_bar_breakout</t>
+        </is>
+      </c>
+      <c r="B161" t="n">
+        <v>1328</v>
+      </c>
+      <c r="C161" t="inlineStr"/>
+      <c r="D161" t="n">
+        <v>8.441988945007324</v>
+      </c>
+      <c r="E161" t="n">
+        <v>2.569817874175602</v>
+      </c>
+      <c r="F161" t="b">
+        <v>1</v>
+      </c>
+      <c r="G161" t="n">
+        <v>14.5081737012534</v>
+      </c>
+      <c r="H161" t="n">
+        <v>11</v>
+      </c>
+      <c r="I161" t="n">
+        <v>-6.097567777221358</v>
+      </c>
+      <c r="J161" t="n">
+        <v>0</v>
+      </c>
+      <c r="K161" t="b">
+        <v>1</v>
+      </c>
+      <c r="L161" t="n">
+        <v>19</v>
+      </c>
+      <c r="M161" t="n">
+        <v>5.956292468188503</v>
+      </c>
+      <c r="N161" t="n">
+        <v>11.9383558270778</v>
+      </c>
+      <c r="O161" t="n">
+        <v>3.386474594012901</v>
+      </c>
+      <c r="P161" t="n">
+        <v>-8.551881233064897</v>
+      </c>
+    </row>
+    <row r="162">
+      <c r="A162" t="inlineStr">
+        <is>
+          <t>twelve_bar_breakout</t>
+        </is>
+      </c>
+      <c r="B162" t="n">
+        <v>1339</v>
+      </c>
+      <c r="C162" t="inlineStr"/>
+      <c r="D162" t="n">
+        <v>9.581111907958984</v>
+      </c>
+      <c r="E162" t="n">
+        <v>-9.654045518629131</v>
+      </c>
+      <c r="F162" t="b">
+        <v>0</v>
+      </c>
+      <c r="G162" t="n">
+        <v>0.8940033041411199</v>
+      </c>
+      <c r="H162" t="n">
+        <v>0</v>
+      </c>
+      <c r="I162" t="n">
+        <v>-15.54917239787108</v>
+      </c>
+      <c r="J162" t="n">
+        <v>19</v>
+      </c>
+      <c r="K162" t="b">
+        <v>1</v>
+      </c>
+      <c r="L162" t="n">
+        <v>8</v>
+      </c>
+      <c r="M162" t="n">
+        <v>-6.641122840098725</v>
+      </c>
+      <c r="N162" t="n">
+        <v>10.54804882277025</v>
+      </c>
+      <c r="O162" t="n">
+        <v>3.012922678530406</v>
+      </c>
+      <c r="P162" t="n">
+        <v>-7.535126144239845</v>
+      </c>
+    </row>
+    <row r="163">
+      <c r="A163" t="inlineStr">
+        <is>
+          <t>twelve_bar_breakout</t>
+        </is>
+      </c>
+      <c r="B163" t="n">
+        <v>1374</v>
+      </c>
+      <c r="C163" t="inlineStr"/>
+      <c r="D163" t="n">
+        <v>8.980548858642578</v>
+      </c>
+      <c r="E163" t="n">
+        <v>-41.33492226861218</v>
+      </c>
+      <c r="F163" t="b">
+        <v>0</v>
+      </c>
+      <c r="G163" t="n">
+        <v>6.682559522609943</v>
+      </c>
+      <c r="H163" t="n">
+        <v>14</v>
+      </c>
+      <c r="I163" t="n">
+        <v>-51.42226928652613</v>
+      </c>
+      <c r="J163" t="n">
+        <v>29</v>
+      </c>
+      <c r="K163" t="b">
+        <v>1</v>
+      </c>
+      <c r="L163" t="n">
+        <v>6</v>
+      </c>
+      <c r="M163" t="n">
+        <v>-3.581252970758182</v>
+      </c>
+      <c r="N163" t="n">
+        <v>48.01748179122212</v>
+      </c>
+      <c r="O163" t="n">
+        <v>37.753669297854</v>
+      </c>
+      <c r="P163" t="n">
+        <v>-10.26381249336812</v>
+      </c>
+    </row>
+    <row r="164">
+      <c r="A164" t="inlineStr">
+        <is>
+          <t>twelve_bar_breakout</t>
+        </is>
+      </c>
+      <c r="B164" t="n">
+        <v>1376</v>
+      </c>
+      <c r="C164" t="inlineStr"/>
+      <c r="D164" t="n">
+        <v>9.067139625549316</v>
+      </c>
+      <c r="E164" t="n">
+        <v>-41.26129295714948</v>
+      </c>
+      <c r="F164" t="b">
+        <v>0</v>
+      </c>
+      <c r="G164" t="n">
+        <v>5.663745979846517</v>
+      </c>
+      <c r="H164" t="n">
+        <v>12</v>
+      </c>
+      <c r="I164" t="n">
+        <v>-51.88618438332424</v>
+      </c>
+      <c r="J164" t="n">
+        <v>27</v>
+      </c>
+      <c r="K164" t="b">
+        <v>1</v>
+      </c>
+      <c r="L164" t="n">
+        <v>4</v>
+      </c>
+      <c r="M164" t="n">
+        <v>-4.502047575698771</v>
+      </c>
+      <c r="N164" t="n">
+        <v>46.925038936996</v>
+      </c>
+      <c r="O164" t="n">
+        <v>36.75924538145071</v>
+      </c>
+      <c r="P164" t="n">
+        <v>-10.16579355554529</v>
+      </c>
+    </row>
+    <row r="165">
+      <c r="A165" t="inlineStr">
+        <is>
+          <t>twelve_bar_breakout</t>
+        </is>
+      </c>
+      <c r="B165" t="n">
+        <v>1422</v>
+      </c>
+      <c r="C165" t="inlineStr"/>
+      <c r="D165" t="n">
+        <v>5.357850551605225</v>
+      </c>
+      <c r="E165" t="n">
+        <v>-31.22918396006062</v>
+      </c>
+      <c r="F165" t="b">
+        <v>0</v>
+      </c>
+      <c r="G165" t="n">
+        <v>9.415980848841246</v>
+      </c>
+      <c r="H165" t="n">
+        <v>1</v>
+      </c>
+      <c r="I165" t="n">
+        <v>-65.2809981680592</v>
+      </c>
+      <c r="J165" t="n">
+        <v>38</v>
+      </c>
+      <c r="K165" t="b">
+        <v>1</v>
+      </c>
+      <c r="L165" t="n">
+        <v>10</v>
+      </c>
+      <c r="M165" t="n">
+        <v>-9.177591374755957</v>
+      </c>
+      <c r="N165" t="n">
+        <v>40.64516480890187</v>
+      </c>
+      <c r="O165" t="n">
+        <v>22.05159258530467</v>
+      </c>
+      <c r="P165" t="n">
+        <v>-18.5935722235972</v>
+      </c>
+    </row>
+    <row r="166">
+      <c r="A166" t="inlineStr">
+        <is>
+          <t>twelve_bar_breakout</t>
+        </is>
+      </c>
+      <c r="B166" t="n">
+        <v>1472</v>
+      </c>
+      <c r="C166" t="inlineStr"/>
+      <c r="D166" t="n">
+        <v>3.20102858543396</v>
+      </c>
+      <c r="E166" t="n">
+        <v>-8.872890515307997</v>
+      </c>
+      <c r="F166" t="b">
+        <v>0</v>
+      </c>
+      <c r="G166" t="n">
+        <v>21.58276453727841</v>
+      </c>
+      <c r="H166" t="n">
+        <v>18</v>
+      </c>
+      <c r="I166" t="n">
+        <v>-20.86329974557885</v>
+      </c>
+      <c r="J166" t="n">
+        <v>29</v>
+      </c>
+      <c r="K166" t="b">
+        <v>1</v>
+      </c>
+      <c r="L166" t="n">
+        <v>15</v>
+      </c>
+      <c r="M166" t="n">
+        <v>5.275796291205323</v>
+      </c>
+      <c r="N166" t="n">
+        <v>30.45565505258641</v>
+      </c>
+      <c r="O166" t="n">
+        <v>14.14868680651332</v>
+      </c>
+      <c r="P166" t="n">
+        <v>-16.30696824607309</v>
+      </c>
+    </row>
+    <row r="167">
+      <c r="A167" t="inlineStr">
+        <is>
+          <t>twelve_bar_breakout</t>
+        </is>
+      </c>
+      <c r="B167" t="n">
+        <v>1546</v>
+      </c>
+      <c r="C167" t="inlineStr"/>
+      <c r="D167" t="n">
+        <v>3.001444339752197</v>
+      </c>
+      <c r="E167" t="n">
+        <v>79.51894396443872</v>
+      </c>
+      <c r="F167" t="b">
+        <v>1</v>
+      </c>
+      <c r="G167" t="n">
+        <v>80.80674621823137</v>
+      </c>
+      <c r="H167" t="n">
+        <v>52</v>
+      </c>
+      <c r="I167" t="n">
+        <v>-2.04603990712286</v>
+      </c>
+      <c r="J167" t="n">
+        <v>0</v>
+      </c>
+      <c r="K167" t="b">
+        <v>0</v>
+      </c>
+      <c r="L167" t="inlineStr"/>
+      <c r="M167" t="inlineStr"/>
+      <c r="N167" t="n">
+        <v>1.287802253792648</v>
+      </c>
+      <c r="O167" t="inlineStr"/>
+      <c r="P167" t="inlineStr"/>
+    </row>
+    <row r="168">
+      <c r="A168" t="inlineStr">
+        <is>
+          <t>twelve_bar_breakout</t>
+        </is>
+      </c>
+      <c r="B168" t="n">
+        <v>1580</v>
+      </c>
+      <c r="C168" t="inlineStr"/>
+      <c r="D168" t="n">
+        <v>4.759323120117188</v>
+      </c>
+      <c r="E168" t="n">
+        <v>14.94305594295733</v>
+      </c>
+      <c r="F168" t="b">
+        <v>1</v>
+      </c>
+      <c r="G168" t="n">
+        <v>23.16500412758709</v>
+      </c>
+      <c r="H168" t="n">
+        <v>50</v>
+      </c>
+      <c r="I168" t="n">
+        <v>-16.43044979101462</v>
+      </c>
+      <c r="J168" t="n">
+        <v>33</v>
+      </c>
+      <c r="K168" t="b">
+        <v>1</v>
+      </c>
+      <c r="L168" t="n">
+        <v>32</v>
+      </c>
+      <c r="M168" t="n">
+        <v>-15.53711322605778</v>
+      </c>
+      <c r="N168" t="n">
+        <v>8.221948184629751</v>
+      </c>
+      <c r="O168" t="n">
+        <v>-30.48016916901512</v>
+      </c>
+      <c r="P168" t="n">
+        <v>-38.70211735364487</v>
+      </c>
+    </row>
+    <row r="169">
+      <c r="A169" t="inlineStr">
+        <is>
+          <t>twelve_bar_breakout</t>
+        </is>
+      </c>
+      <c r="B169" t="n">
+        <v>1595</v>
+      </c>
+      <c r="C169" t="inlineStr"/>
+      <c r="D169" t="n">
+        <v>5.288989543914795</v>
+      </c>
+      <c r="E169" t="n">
+        <v>6.687426719612616</v>
+      </c>
+      <c r="F169" t="b">
+        <v>1</v>
+      </c>
+      <c r="G169" t="n">
+        <v>10.83063161056563</v>
+      </c>
+      <c r="H169" t="n">
+        <v>35</v>
+      </c>
+      <c r="I169" t="n">
+        <v>-24.79953133864131</v>
+      </c>
+      <c r="J169" t="n">
+        <v>18</v>
+      </c>
+      <c r="K169" t="b">
+        <v>1</v>
+      </c>
+      <c r="L169" t="n">
+        <v>17</v>
+      </c>
+      <c r="M169" t="n">
+        <v>-23.99565805956915</v>
+      </c>
+      <c r="N169" t="n">
+        <v>4.143204890953011</v>
+      </c>
+      <c r="O169" t="n">
+        <v>-30.68308477918177</v>
+      </c>
+      <c r="P169" t="n">
+        <v>-34.82628967013478</v>
+      </c>
+    </row>
+    <row r="170">
+      <c r="A170" t="inlineStr">
+        <is>
+          <t>twelve_bar_breakout</t>
+        </is>
+      </c>
+      <c r="B170" t="n">
+        <v>1625</v>
+      </c>
+      <c r="C170" t="inlineStr"/>
+      <c r="D170" t="n">
+        <v>5.627035140991211</v>
+      </c>
+      <c r="E170" t="n">
+        <v>-56.61052163811989</v>
+      </c>
+      <c r="F170" t="b">
+        <v>0</v>
+      </c>
+      <c r="G170" t="n">
+        <v>27.7554019123063</v>
+      </c>
+      <c r="H170" t="n">
+        <v>42</v>
+      </c>
+      <c r="I170" t="n">
+        <v>-61.16285947297688</v>
+      </c>
+      <c r="J170" t="n">
+        <v>52</v>
+      </c>
+      <c r="K170" t="b">
+        <v>1</v>
+      </c>
+      <c r="L170" t="n">
+        <v>10</v>
+      </c>
+      <c r="M170" t="n">
+        <v>-6.258704956668848</v>
+      </c>
+      <c r="N170" t="n">
+        <v>84.3659235504262</v>
+      </c>
+      <c r="O170" t="n">
+        <v>50.35181668145104</v>
+      </c>
+      <c r="P170" t="n">
+        <v>-34.01410686897515</v>
+      </c>
+    </row>
+    <row r="171">
+      <c r="A171" t="inlineStr">
+        <is>
+          <t>twelve_bar_breakout</t>
+        </is>
+      </c>
+      <c r="B171" t="n">
+        <v>1658</v>
+      </c>
+      <c r="C171" t="inlineStr"/>
+      <c r="D171" t="n">
+        <v>6.427949905395508</v>
+      </c>
+      <c r="E171" t="n">
+        <v>-38.91460690894061</v>
+      </c>
+      <c r="F171" t="b">
+        <v>0</v>
+      </c>
+      <c r="G171" t="n">
+        <v>11.83723373584238</v>
+      </c>
+      <c r="H171" t="n">
+        <v>9</v>
+      </c>
+      <c r="I171" t="n">
+        <v>-66.00192009310216</v>
+      </c>
+      <c r="J171" t="n">
+        <v>19</v>
+      </c>
+      <c r="K171" t="b">
+        <v>1</v>
+      </c>
+      <c r="L171" t="n">
+        <v>4</v>
+      </c>
+      <c r="M171" t="n">
+        <v>-0.2465952760410022</v>
+      </c>
+      <c r="N171" t="n">
+        <v>50.75184064478299</v>
+      </c>
+      <c r="O171" t="n">
+        <v>38.66801163289961</v>
+      </c>
+      <c r="P171" t="n">
+        <v>-12.08382901188338</v>
+      </c>
+    </row>
+    <row r="172">
+      <c r="A172" t="inlineStr">
+        <is>
+          <t>twelve_bar_breakout</t>
+        </is>
+      </c>
+      <c r="B172" t="n">
+        <v>1713</v>
+      </c>
+      <c r="C172" t="inlineStr"/>
+      <c r="D172" t="n">
+        <v>5.028865337371826</v>
+      </c>
+      <c r="E172" t="n">
+        <v>6.18013245409881</v>
+      </c>
+      <c r="F172" t="b">
+        <v>1</v>
+      </c>
+      <c r="G172" t="n">
+        <v>26.62489663960566</v>
+      </c>
+      <c r="H172" t="n">
+        <v>29</v>
+      </c>
+      <c r="I172" t="n">
+        <v>-5.192853677222455</v>
+      </c>
+      <c r="J172" t="n">
+        <v>38</v>
+      </c>
+      <c r="K172" t="b">
+        <v>1</v>
+      </c>
+      <c r="L172" t="n">
+        <v>19</v>
+      </c>
+      <c r="M172" t="n">
+        <v>14.1885183374825</v>
+      </c>
+      <c r="N172" t="n">
+        <v>20.44476418550685</v>
+      </c>
+      <c r="O172" t="n">
+        <v>8.008385883383692</v>
+      </c>
+      <c r="P172" t="n">
+        <v>-12.43637830212316</v>
+      </c>
+    </row>
+    <row r="173">
+      <c r="A173" t="inlineStr">
+        <is>
+          <t>twelve_bar_breakout</t>
+        </is>
+      </c>
+      <c r="B173" t="n">
+        <v>1727</v>
+      </c>
+      <c r="C173" t="inlineStr"/>
+      <c r="D173" t="n">
+        <v>6.302818298339844</v>
+      </c>
+      <c r="E173" t="n">
+        <v>3.034891596045625</v>
+      </c>
+      <c r="F173" t="b">
+        <v>1</v>
+      </c>
+      <c r="G173" t="n">
+        <v>7.682076137014962</v>
+      </c>
+      <c r="H173" t="n">
+        <v>52</v>
+      </c>
+      <c r="I173" t="n">
+        <v>-24.35568513797452</v>
+      </c>
+      <c r="J173" t="n">
+        <v>24</v>
+      </c>
+      <c r="K173" t="b">
+        <v>1</v>
+      </c>
+      <c r="L173" t="n">
+        <v>5</v>
+      </c>
+      <c r="M173" t="n">
+        <v>-8.891760064784542</v>
+      </c>
+      <c r="N173" t="n">
+        <v>4.647184540969337</v>
+      </c>
+      <c r="O173" t="n">
+        <v>-11.92665166083017</v>
+      </c>
+      <c r="P173" t="n">
+        <v>-16.57383620179951</v>
+      </c>
+    </row>
+    <row r="174">
+      <c r="A174" t="inlineStr">
+        <is>
+          <t>twelve_bar_breakout</t>
+        </is>
+      </c>
+      <c r="B174" t="n">
+        <v>1776</v>
+      </c>
+      <c r="C174" t="inlineStr"/>
+      <c r="D174" t="n">
+        <v>6.104815006256104</v>
+      </c>
+      <c r="E174" t="n">
+        <v>-3.322269282516041</v>
+      </c>
+      <c r="F174" t="b">
+        <v>0</v>
+      </c>
+      <c r="G174" t="n">
+        <v>21.38734541588228</v>
+      </c>
+      <c r="H174" t="n">
+        <v>17</v>
+      </c>
+      <c r="I174" t="n">
+        <v>-8.625325306441821</v>
+      </c>
+      <c r="J174" t="n">
+        <v>2</v>
+      </c>
+      <c r="K174" t="b">
+        <v>1</v>
+      </c>
+      <c r="L174" t="n">
+        <v>13</v>
+      </c>
+      <c r="M174" t="n">
+        <v>10.35214768730874</v>
+      </c>
+      <c r="N174" t="n">
+        <v>24.70961469839832</v>
+      </c>
+      <c r="O174" t="n">
+        <v>13.67441696982478</v>
+      </c>
+      <c r="P174" t="n">
+        <v>-11.03519772857354</v>
+      </c>
+    </row>
+    <row r="175">
+      <c r="A175" t="inlineStr">
+        <is>
+          <t>twelve_bar_breakout</t>
+        </is>
+      </c>
+      <c r="B175" t="n">
+        <v>1786</v>
+      </c>
+      <c r="C175" t="inlineStr"/>
+      <c r="D175" t="n">
+        <v>6.820481300354004</v>
+      </c>
+      <c r="E175" t="n">
+        <v>-7.91414824226596</v>
+      </c>
+      <c r="F175" t="b">
+        <v>0</v>
+      </c>
+      <c r="G175" t="n">
+        <v>8.650292439920431</v>
+      </c>
+      <c r="H175" t="n">
+        <v>7</v>
+      </c>
+      <c r="I175" t="n">
+        <v>-16.93252081907777</v>
+      </c>
+      <c r="J175" t="n">
+        <v>12</v>
+      </c>
+      <c r="K175" t="b">
+        <v>1</v>
+      </c>
+      <c r="L175" t="n">
+        <v>3</v>
+      </c>
+      <c r="M175" t="n">
+        <v>-1.226993007208123</v>
+      </c>
+      <c r="N175" t="n">
+        <v>16.56444068218639</v>
+      </c>
+      <c r="O175" t="n">
+        <v>6.687155235057838</v>
+      </c>
+      <c r="P175" t="n">
+        <v>-9.877285447128553</v>
+      </c>
+    </row>
+    <row r="176">
+      <c r="A176" t="inlineStr">
+        <is>
+          <t>twelve_bar_breakout</t>
+        </is>
+      </c>
+      <c r="B176" t="n">
+        <v>1843</v>
+      </c>
+      <c r="C176" t="inlineStr"/>
+      <c r="D176" t="n">
+        <v>6.535084247589111</v>
+      </c>
+      <c r="E176" t="n">
+        <v>8.701936109022467</v>
+      </c>
+      <c r="F176" t="b">
+        <v>1</v>
+      </c>
+      <c r="G176" t="n">
+        <v>13.80398283576608</v>
+      </c>
+      <c r="H176" t="n">
+        <v>45</v>
+      </c>
+      <c r="I176" t="n">
+        <v>-10.25435389192897</v>
+      </c>
+      <c r="J176" t="n">
+        <v>28</v>
+      </c>
+      <c r="K176" t="b">
+        <v>1</v>
+      </c>
+      <c r="L176" t="n">
+        <v>19</v>
+      </c>
+      <c r="M176" t="n">
+        <v>0.4003702280872072</v>
+      </c>
+      <c r="N176" t="n">
+        <v>5.102046726743612</v>
+      </c>
+      <c r="O176" t="n">
+        <v>-8.301565880935261</v>
+      </c>
+      <c r="P176" t="n">
+        <v>-13.40361260767887</v>
+      </c>
+    </row>
+    <row r="177">
+      <c r="A177" t="inlineStr">
+        <is>
+          <t>twelve_bar_breakout</t>
+        </is>
+      </c>
+      <c r="B177" t="n">
+        <v>1852</v>
+      </c>
+      <c r="C177" t="inlineStr"/>
+      <c r="D177" t="n">
+        <v>6.964909076690674</v>
+      </c>
+      <c r="E177" t="n">
+        <v>2.924463694965924</v>
+      </c>
+      <c r="F177" t="b">
+        <v>1</v>
+      </c>
+      <c r="G177" t="n">
+        <v>8.775477523024962</v>
+      </c>
+      <c r="H177" t="n">
+        <v>49</v>
+      </c>
+      <c r="I177" t="n">
+        <v>-15.79281915777269</v>
+      </c>
+      <c r="J177" t="n">
+        <v>19</v>
+      </c>
+      <c r="K177" t="b">
+        <v>1</v>
+      </c>
+      <c r="L177" t="n">
+        <v>10</v>
+      </c>
+      <c r="M177" t="n">
+        <v>-5.795629102248024</v>
+      </c>
+      <c r="N177" t="n">
+        <v>5.851013828059038</v>
+      </c>
+      <c r="O177" t="n">
+        <v>-8.720092797213947</v>
+      </c>
+      <c r="P177" t="n">
+        <v>-14.57110662527299</v>
+      </c>
+    </row>
+    <row r="178">
+      <c r="A178" t="inlineStr">
+        <is>
+          <t>twelve_bar_breakout</t>
+        </is>
+      </c>
+      <c r="B178" t="n">
+        <v>1887</v>
+      </c>
+      <c r="C178" t="inlineStr"/>
+      <c r="D178" t="n">
+        <v>7.177857398986816</v>
+      </c>
+      <c r="E178" t="n">
+        <v>-7.667046788765446</v>
+      </c>
+      <c r="F178" t="b">
+        <v>0</v>
+      </c>
+      <c r="G178" t="n">
+        <v>5.548392592533092</v>
+      </c>
+      <c r="H178" t="n">
+        <v>14</v>
+      </c>
+      <c r="I178" t="n">
+        <v>-18.52975105635445</v>
+      </c>
+      <c r="J178" t="n">
+        <v>49</v>
+      </c>
+      <c r="K178" t="b">
+        <v>1</v>
+      </c>
+      <c r="L178" t="n">
+        <v>5</v>
+      </c>
+      <c r="M178" t="n">
+        <v>-3.483863544536931</v>
+      </c>
+      <c r="N178" t="n">
+        <v>13.21543938129854</v>
+      </c>
+      <c r="O178" t="n">
+        <v>4.183183244228515</v>
+      </c>
+      <c r="P178" t="n">
+        <v>-9.032256137070021</v>
       </c>
     </row>
   </sheetData>
@@ -7009,7 +9137,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:T4"/>
+  <dimension ref="A1:T5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -7222,40 +9350,90 @@
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
+          <t>twelve_bar_breakout</t>
+        </is>
+      </c>
+      <c r="B4" t="n">
+        <v>44</v>
+      </c>
+      <c r="C4" t="n">
+        <v>50</v>
+      </c>
+      <c r="D4" t="n">
+        <v>4.096338185905538</v>
+      </c>
+      <c r="E4" t="n">
+        <v>-0.1136139804333531</v>
+      </c>
+      <c r="F4" t="n">
+        <v>27.15598996139236</v>
+      </c>
+      <c r="G4" t="n">
+        <v>21.89650996313143</v>
+      </c>
+      <c r="H4" t="n">
+        <v>-19.46490173022175</v>
+      </c>
+      <c r="I4" t="n">
+        <v>17.80017177722588</v>
+      </c>
+      <c r="J4" t="n">
+        <v>79.54545454545455</v>
+      </c>
+      <c r="K4" t="n">
+        <v>16.8</v>
+      </c>
+      <c r="L4" t="n">
+        <v>51.42857142857142</v>
+      </c>
+      <c r="M4" t="n">
+        <v>-1.639865959249118</v>
+      </c>
+      <c r="N4" t="inlineStr"/>
+      <c r="O4" t="inlineStr"/>
+      <c r="P4" t="inlineStr"/>
+      <c r="Q4" t="inlineStr"/>
+      <c r="R4" t="inlineStr"/>
+      <c r="S4" t="inlineStr"/>
+      <c r="T4" t="inlineStr"/>
+    </row>
+    <row r="5">
+      <c r="A5" t="inlineStr">
+        <is>
           <t>random_baseline</t>
         </is>
       </c>
-      <c r="B4" t="inlineStr"/>
-      <c r="C4" t="inlineStr"/>
-      <c r="D4" t="inlineStr"/>
-      <c r="E4" t="inlineStr"/>
-      <c r="F4" t="inlineStr"/>
-      <c r="G4" t="inlineStr"/>
-      <c r="H4" t="inlineStr"/>
-      <c r="I4" t="inlineStr"/>
-      <c r="J4" t="inlineStr"/>
-      <c r="K4" t="inlineStr"/>
-      <c r="L4" t="inlineStr"/>
-      <c r="M4" t="inlineStr"/>
-      <c r="N4" t="n">
+      <c r="B5" t="inlineStr"/>
+      <c r="C5" t="inlineStr"/>
+      <c r="D5" t="inlineStr"/>
+      <c r="E5" t="inlineStr"/>
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr"/>
+      <c r="I5" t="inlineStr"/>
+      <c r="J5" t="inlineStr"/>
+      <c r="K5" t="inlineStr"/>
+      <c r="L5" t="inlineStr"/>
+      <c r="M5" t="inlineStr"/>
+      <c r="N5" t="n">
         <v>500</v>
       </c>
-      <c r="O4" t="n">
+      <c r="O5" t="n">
         <v>61</v>
       </c>
-      <c r="P4" t="n">
+      <c r="P5" t="n">
         <v>9.983301123134368</v>
       </c>
-      <c r="Q4" t="n">
+      <c r="Q5" t="n">
         <v>6.097920665786642</v>
       </c>
-      <c r="R4" t="n">
+      <c r="R5" t="n">
         <v>28.07615701157919</v>
       </c>
-      <c r="S4" t="n">
+      <c r="S5" t="n">
         <v>28.38538931722254</v>
       </c>
-      <c r="T4" t="n">
+      <c r="T5" t="n">
         <v>-16.74452768491194</v>
       </c>
     </row>
